--- a/Enemies2.xlsx
+++ b/Enemies2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\nhapmongame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26332E6B-0FE6-496F-B35F-8F6967F4B453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94261F23-A941-406E-A6D2-F9EB423E3728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3CE8D76A-6137-4DED-8FB9-A002D5CB39E0}"/>
+    <workbookView xWindow="5060" yWindow="1030" windowWidth="13870" windowHeight="9170" activeTab="3" xr2:uid="{3CE8D76A-6137-4DED-8FB9-A002D5CB39E0}"/>
   </bookViews>
   <sheets>
     <sheet name="sprite" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="aniset" sheetId="3" r:id="rId3"/>
     <sheet name="object" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">object!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>enemy1</t>
   </si>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>Enemy13 (eye), có item</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Enemy13 (eye), đi ngang, item</t>
@@ -634,7 +634,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2343,15 +2343,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295686CE-12C7-44C8-8B10-67A78724A0F5}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -2436,7 +2436,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10">
-        <f t="shared" ref="B10:B18" si="2">B9+1</f>
+        <f t="shared" ref="B10:B15" si="2">B9+1</f>
         <v>9208</v>
       </c>
       <c r="C10">
@@ -2464,7 +2464,7 @@
         <v>9210</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C18" si="3">C11+1</f>
+        <f t="shared" ref="C12:C15" si="3">C11+1</f>
         <v>9111</v>
       </c>
     </row>
@@ -2509,105 +2509,79 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="B16">
+        <v>9214</v>
+      </c>
+      <c r="C16">
+        <v>9115</v>
+      </c>
+      <c r="D16">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B17">
-        <f>B15+1</f>
-        <v>9214</v>
+        <v>9216</v>
       </c>
       <c r="C17">
-        <f>C15+1</f>
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>9217</v>
+      </c>
+      <c r="C18">
         <v>9115</v>
       </c>
-      <c r="D17">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>9218</v>
+      </c>
+      <c r="C19">
+        <v>9114</v>
+      </c>
+      <c r="D19">
         <v>9116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="2"/>
-        <v>9215</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>9219</v>
+      </c>
+      <c r="C20">
+        <v>9113</v>
+      </c>
+      <c r="D20">
         <v>9116</v>
       </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19">
-        <f>B18+1</f>
-        <v>9216</v>
-      </c>
-      <c r="C19">
-        <v>9117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20">
-        <v>9217</v>
-      </c>
-      <c r="C20">
-        <f>C14+1</f>
-        <v>9114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B21">
-        <v>9218</v>
+        <v>9220</v>
       </c>
       <c r="C21">
-        <v>9114</v>
+        <v>9112</v>
       </c>
       <c r="D21">
-        <v>9116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ref="B22:C22" si="4">B21+1</f>
-        <v>9219</v>
-      </c>
-      <c r="C22">
-        <v>9113</v>
-      </c>
-      <c r="D22">
-        <v>9116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23">
-        <v>9220</v>
-      </c>
-      <c r="C23">
-        <v>9112</v>
-      </c>
-      <c r="D23">
         <v>9116</v>
       </c>
     </row>
@@ -2618,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7636B0-73DA-492F-B863-BFF3740CF9D2}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2669,7 +2643,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4">
-        <f t="shared" ref="B4:B8" si="0">B3+1</f>
+        <f>B3+1</f>
         <v>7</v>
       </c>
       <c r="C4">
@@ -2679,13 +2653,13 @@
         <v>300</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="1">E3+1</f>
+        <f>E3+1</f>
         <v>9202</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>B4+1</f>
         <v>8</v>
       </c>
       <c r="C5">
@@ -2695,13 +2669,13 @@
         <v>250</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f>E4+1</f>
         <v>9203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>B5+1</f>
         <v>9</v>
       </c>
       <c r="C6">
@@ -2711,13 +2685,13 @@
         <v>350</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f>E5+1</f>
         <v>9204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>B6+1</f>
         <v>10</v>
       </c>
       <c r="C7">
@@ -2727,13 +2701,13 @@
         <v>200</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>E6+1</f>
         <v>9205</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>B7+1</f>
         <v>11</v>
       </c>
       <c r="C8">
@@ -2743,7 +2717,7 @@
         <v>350</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f>E7+1</f>
         <v>9206</v>
       </c>
     </row>
@@ -2758,7 +2732,7 @@
         <v>450</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f>E8+1</f>
         <v>9207</v>
       </c>
     </row>
@@ -2773,7 +2747,7 @@
         <v>50</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f>E9+1</f>
         <v>9208</v>
       </c>
     </row>
@@ -2788,141 +2762,141 @@
         <v>59</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f>E10+1</f>
         <v>9209</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E12">
-        <v>9210</v>
+        <v>9213</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>302</v>
+        <v>463</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="E13">
-        <v>9211</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>382</v>
+        <v>283</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="E14">
-        <v>9212</v>
+        <v>9213</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D15">
-        <v>294</v>
+        <v>160</v>
       </c>
       <c r="E15">
-        <v>9212</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D16">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="E16">
-        <v>9213</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D17">
-        <v>410</v>
+        <v>294</v>
       </c>
       <c r="E17">
-        <v>9218</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>483</v>
+        <v>1328</v>
       </c>
       <c r="E18">
-        <v>9213</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>444</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>630</v>
+        <v>1373</v>
       </c>
       <c r="E19">
         <v>9211</v>
@@ -2930,16 +2904,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="D20">
-        <v>1328</v>
+        <v>584</v>
       </c>
       <c r="E20">
         <v>9211</v>
@@ -2947,50 +2921,50 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>459</v>
+        <v>130</v>
       </c>
       <c r="D21">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E21">
-        <v>9217</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22">
-        <v>459</v>
+        <v>382</v>
       </c>
       <c r="D22">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>9214</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>17</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>444</v>
       </c>
       <c r="D23">
-        <v>1763</v>
+        <v>630</v>
       </c>
       <c r="E23">
         <v>9211</v>
@@ -2998,16 +2972,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24">
         <v>17</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>1543</v>
+        <v>1763</v>
       </c>
       <c r="E24">
         <v>9211</v>
@@ -3015,33 +2989,33 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>17</v>
       </c>
       <c r="C25">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>1674</v>
+        <v>1543</v>
       </c>
       <c r="E25">
-        <v>9212</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>17</v>
       </c>
       <c r="C26">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D26">
-        <v>1461</v>
+        <v>1674</v>
       </c>
       <c r="E26">
         <v>9212</v>
@@ -3049,24 +3023,24 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="D27">
-        <v>1373</v>
+        <v>1461</v>
       </c>
       <c r="E27">
-        <v>9211</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>17</v>
@@ -3083,7 +3057,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -3100,7 +3074,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30">
         <v>17</v>
@@ -3117,7 +3091,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>17</v>
@@ -3134,7 +3108,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>17</v>
@@ -3151,7 +3125,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -3168,7 +3142,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>17</v>
@@ -3185,24 +3159,24 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>584</v>
+        <v>434</v>
       </c>
       <c r="E35">
-        <v>9211</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -3211,7 +3185,7 @@
         <v>41</v>
       </c>
       <c r="D36">
-        <v>434</v>
+        <v>309</v>
       </c>
       <c r="E36">
         <v>9212</v>
@@ -3219,56 +3193,78 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>17</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="E37">
-        <v>9212</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>17</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38">
-        <v>9219</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>499</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="E39">
-        <v>9220</v>
+        <v>9214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>9210</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{4F7636B0-73DA-492F-B863-BFF3740CF9D2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Enemies2.xlsx
+++ b/Enemies2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\nhapmongame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94261F23-A941-406E-A6D2-F9EB423E3728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE96B1-688C-48FE-9C26-298A3BF0B76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1030" windowWidth="13870" windowHeight="9170" activeTab="3" xr2:uid="{3CE8D76A-6137-4DED-8FB9-A002D5CB39E0}"/>
+    <workbookView xWindow="3550" yWindow="540" windowWidth="13870" windowHeight="9170" xr2:uid="{3CE8D76A-6137-4DED-8FB9-A002D5CB39E0}"/>
   </bookViews>
   <sheets>
     <sheet name="sprite" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +290,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -315,8 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E190BF18-1A6B-4524-A793-DF9DF2FA9D0D}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1533,7 +1542,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>8031</v>
@@ -1553,7 +1562,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>8033</v>
@@ -1596,7 +1605,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>8034</v>
@@ -1616,7 +1625,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>8035</v>
@@ -1636,7 +1645,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>8037</v>
@@ -1679,7 +1688,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>8038</v>
@@ -1699,7 +1708,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>8039</v>
@@ -1719,7 +1728,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1742,7 +1751,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>8041</v>
@@ -1762,7 +1771,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1785,7 +1794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>158</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45:F47" si="14">C45+18</f>
+        <f t="shared" ref="E45:F48" si="14">C45+18</f>
         <v>222</v>
       </c>
       <c r="F45">
@@ -1808,7 +1817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>8044</v>
@@ -1828,7 +1837,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>8045</v>
@@ -1846,6 +1855,292 @@
       <c r="F47">
         <f t="shared" si="14"/>
         <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>4000</v>
+      </c>
+      <c r="C48">
+        <v>177</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <f>C48+14</f>
+        <v>191</v>
+      </c>
+      <c r="F48">
+        <f>D48+16</f>
+        <v>39</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>5678</v>
+      </c>
+      <c r="J48">
+        <v>4000</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>4001</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48">
+        <v>4002</v>
+      </c>
+      <c r="O48">
+        <v>100</v>
+      </c>
+      <c r="P48">
+        <v>4003</v>
+      </c>
+      <c r="Q48">
+        <v>100</v>
+      </c>
+      <c r="R48">
+        <v>4008</v>
+      </c>
+      <c r="S48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <f>B48+1</f>
+        <v>4001</v>
+      </c>
+      <c r="C49">
+        <v>98</v>
+      </c>
+      <c r="D49">
+        <v>25</v>
+      </c>
+      <c r="E49">
+        <f>C49+16</f>
+        <v>114</v>
+      </c>
+      <c r="F49">
+        <f>D49+14</f>
+        <v>39</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>5679</v>
+      </c>
+      <c r="J49">
+        <v>4004</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>4005</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>4006</v>
+      </c>
+      <c r="O49">
+        <v>100</v>
+      </c>
+      <c r="P49">
+        <v>4007</v>
+      </c>
+      <c r="Q49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <f t="shared" ref="B50:B56" si="15">B49+1</f>
+        <v>4002</v>
+      </c>
+      <c r="C50">
+        <v>81</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <f>C50+16</f>
+        <v>97</v>
+      </c>
+      <c r="F50">
+        <f>D50+14</f>
+        <v>37</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <f t="shared" si="15"/>
+        <v>4003</v>
+      </c>
+      <c r="C51">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <f>C51+16</f>
+        <v>77</v>
+      </c>
+      <c r="F51">
+        <f>D51+14</f>
+        <v>39</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>6968</v>
+      </c>
+      <c r="J51">
+        <v>5678</v>
+      </c>
+      <c r="K51">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>4008</v>
+      </c>
+      <c r="C52">
+        <v>177</v>
+      </c>
+      <c r="D52">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <f>C52+14</f>
+        <v>191</v>
+      </c>
+      <c r="F52">
+        <f>D52+16</f>
+        <v>39</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <f>B51+1</f>
+        <v>4004</v>
+      </c>
+      <c r="C53">
+        <v>141</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <f>C53+10</f>
+        <v>151</v>
+      </c>
+      <c r="F53">
+        <f>D53+17</f>
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>678</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <f t="shared" si="15"/>
+        <v>4005</v>
+      </c>
+      <c r="C54">
+        <v>154</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <f>C54+10</f>
+        <v>164</v>
+      </c>
+      <c r="F54">
+        <f>D54+16</f>
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <f t="shared" si="15"/>
+        <v>4006</v>
+      </c>
+      <c r="C55">
+        <v>167</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <f>C55+10</f>
+        <v>177</v>
+      </c>
+      <c r="F55">
+        <f>D55+16</f>
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <f t="shared" si="15"/>
+        <v>4007</v>
+      </c>
+      <c r="C56">
+        <v>180</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <f>C56+10</f>
+        <v>190</v>
+      </c>
+      <c r="F56">
+        <f>D56+17</f>
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2594,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7636B0-73DA-492F-B863-BFF3740CF9D2}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2627,14 +2922,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3">
-        <f>B2+1</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="D3">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="E3">
         <f>E2+1</f>
@@ -2643,14 +2937,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4">
-        <f>B3+1</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <f>E3+1</f>
@@ -2659,14 +2952,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5">
-        <f>B4+1</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>537</v>
       </c>
       <c r="D5">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <f>E4+1</f>
@@ -2674,178 +2966,186 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
       <c r="B6">
-        <f>B5+1</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6">
+        <v>459</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6">
+        <v>9217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>285</v>
+      </c>
+      <c r="D7">
+        <v>350</v>
+      </c>
+      <c r="E7">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>463</v>
+      </c>
+      <c r="D8">
+        <v>410</v>
+      </c>
+      <c r="E8">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>283</v>
+      </c>
+      <c r="D9">
+        <v>483</v>
+      </c>
+      <c r="E9">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>302</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>130</v>
+      </c>
+      <c r="D11">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <f>B11+1</f>
+        <v>17</v>
+      </c>
+      <c r="C12">
         <v>150</v>
       </c>
-      <c r="D6">
-        <v>350</v>
-      </c>
-      <c r="E6">
-        <f>E5+1</f>
-        <v>9204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <f>B6+1</f>
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>150</v>
-      </c>
-      <c r="D7">
+      <c r="D12">
         <v>200</v>
       </c>
-      <c r="E7">
-        <f>E6+1</f>
-        <v>9205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <f>B7+1</f>
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <v>350</v>
-      </c>
-      <c r="E8">
-        <f>E7+1</f>
-        <v>9206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>700</v>
-      </c>
-      <c r="D9">
-        <v>450</v>
-      </c>
-      <c r="E9">
-        <f>E8+1</f>
-        <v>9207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>150</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-      <c r="E10">
-        <f>E9+1</f>
-        <v>9208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>537</v>
-      </c>
-      <c r="D11">
-        <v>59</v>
-      </c>
-      <c r="E11">
-        <f>E10+1</f>
-        <v>9209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>285</v>
-      </c>
-      <c r="D12">
-        <v>350</v>
-      </c>
       <c r="E12">
-        <v>9213</v>
+        <f>E11+1</f>
+        <v>9221</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="D13">
-        <v>410</v>
+        <v>294</v>
       </c>
       <c r="E13">
-        <v>9218</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="D14">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="E14">
-        <v>9213</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>459</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>160</v>
+        <v>1328</v>
       </c>
       <c r="E15">
-        <v>9217</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>302</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>1373</v>
       </c>
       <c r="E16">
         <v>9211</v>
@@ -2853,16 +3153,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D17">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>9212</v>
@@ -2870,84 +3170,82 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>382</v>
       </c>
       <c r="D18">
-        <v>1328</v>
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>9211</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>1373</v>
+        <v>80</v>
       </c>
       <c r="E19">
-        <v>9211</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
       <c r="B20">
-        <v>16</v>
+        <f>B19+1</f>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="D20">
-        <v>584</v>
+        <v>250</v>
       </c>
       <c r="E20">
-        <v>9211</v>
+        <f>E19+1</f>
+        <v>9220</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
       <c r="B21">
-        <v>16</v>
+        <f>B20+1</f>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="E21">
-        <v>9220</v>
+        <f>E20+1</f>
+        <v>9221</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>17</v>
       </c>
       <c r="C22">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="E22">
         <v>9212</v>
@@ -2955,33 +3253,33 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>17</v>
       </c>
       <c r="C23">
-        <v>444</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>630</v>
+        <v>434</v>
       </c>
       <c r="E23">
-        <v>9211</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>17</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>444</v>
       </c>
       <c r="D24">
-        <v>1763</v>
+        <v>630</v>
       </c>
       <c r="E24">
         <v>9211</v>
@@ -2995,10 +3293,10 @@
         <v>17</v>
       </c>
       <c r="C25">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>1543</v>
+        <v>663</v>
       </c>
       <c r="E25">
         <v>9211</v>
@@ -3006,53 +3304,53 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26">
         <v>17</v>
       </c>
       <c r="C26">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>1674</v>
+        <v>680</v>
       </c>
       <c r="E26">
-        <v>9212</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="D27">
-        <v>1461</v>
+        <v>683</v>
       </c>
       <c r="E27">
-        <v>9212</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>17</v>
       </c>
       <c r="C28">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D28">
-        <v>1201</v>
+        <v>809</v>
       </c>
       <c r="E28">
-        <v>9219</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -3063,10 +3361,10 @@
         <v>17</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D29">
-        <v>1098</v>
+        <v>940</v>
       </c>
       <c r="E29">
         <v>9220</v>
@@ -3080,10 +3378,10 @@
         <v>17</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>940</v>
+        <v>1098</v>
       </c>
       <c r="E30">
         <v>9220</v>
@@ -3091,36 +3389,36 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>17</v>
       </c>
       <c r="C31">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="D31">
-        <v>809</v>
+        <v>1201</v>
       </c>
       <c r="E31">
-        <v>9212</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>17</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="D32">
-        <v>663</v>
+        <v>1461</v>
       </c>
       <c r="E32">
-        <v>9211</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -3131,10 +3429,10 @@
         <v>17</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D33">
-        <v>683</v>
+        <v>1543</v>
       </c>
       <c r="E33">
         <v>9211</v>
@@ -3142,104 +3440,101 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>17</v>
       </c>
       <c r="C34">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="D34">
-        <v>680</v>
+        <v>1674</v>
       </c>
       <c r="E34">
-        <v>9211</v>
+        <v>9212</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <v>17</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D35">
-        <v>434</v>
+        <v>1763</v>
       </c>
       <c r="E35">
-        <v>9212</v>
+        <v>9211</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="D36">
-        <v>309</v>
+        <v>140</v>
       </c>
       <c r="E36">
-        <v>9212</v>
+        <v>9214</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
       <c r="B37">
-        <v>17</v>
+        <f>B36+1</f>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D37">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="E37">
-        <v>9219</v>
+        <f>E36+1</f>
+        <v>9215</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
       <c r="B38">
-        <v>17</v>
+        <f>B37+1</f>
+        <v>20</v>
       </c>
       <c r="C38">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="D38">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="E38">
-        <v>9212</v>
+        <f>E37+1</f>
+        <v>9216</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
       <c r="B39">
-        <v>18</v>
+        <f>B38+1</f>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>499</v>
+        <v>200</v>
       </c>
       <c r="D39">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="E39">
-        <v>9214</v>
+        <f>E38+1</f>
+        <v>9217</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -3266,5 +3561,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>